--- a/data/pca/factorExposure/factorExposure_2011-08-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.0215610356706403</v>
+        <v>0.01804219015491568</v>
       </c>
       <c r="C2">
-        <v>-0.01357726942434693</v>
+        <v>0.007750070479786971</v>
       </c>
       <c r="D2">
-        <v>0.04468131597969575</v>
+        <v>0.02862828069125763</v>
       </c>
       <c r="E2">
-        <v>-0.06760859890536844</v>
+        <v>0.03964235481095333</v>
       </c>
       <c r="F2">
-        <v>0.001827550849818436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02086581344915887</v>
+      </c>
+      <c r="G2">
+        <v>-0.01848828451100794</v>
+      </c>
+      <c r="H2">
+        <v>-0.01630280921123131</v>
+      </c>
+      <c r="I2">
+        <v>0.005701667566146778</v>
+      </c>
+      <c r="J2">
+        <v>0.04016818657164777</v>
+      </c>
+      <c r="K2">
+        <v>-0.06764901496005764</v>
+      </c>
+      <c r="L2">
+        <v>-0.05946930000706424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.07620097431056523</v>
+        <v>0.09282423034801619</v>
       </c>
       <c r="C4">
-        <v>-0.0415689051961152</v>
+        <v>0.05051013338059954</v>
       </c>
       <c r="D4">
-        <v>0.05564442439212215</v>
+        <v>0.02891210603582874</v>
       </c>
       <c r="E4">
-        <v>-0.02050620167521958</v>
+        <v>0.03631696401361087</v>
       </c>
       <c r="F4">
-        <v>0.02853690722715364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0764984658273474</v>
+      </c>
+      <c r="G4">
+        <v>-0.04316224565377978</v>
+      </c>
+      <c r="H4">
+        <v>-0.008477505622816744</v>
+      </c>
+      <c r="I4">
+        <v>-0.07614008124053462</v>
+      </c>
+      <c r="J4">
+        <v>-0.01110382357592503</v>
+      </c>
+      <c r="K4">
+        <v>0.05200758070615043</v>
+      </c>
+      <c r="L4">
+        <v>0.03888999649997623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1238025632446345</v>
+        <v>0.1312333316696739</v>
       </c>
       <c r="C6">
-        <v>-0.009517008376259338</v>
+        <v>0.01975968471147031</v>
       </c>
       <c r="D6">
-        <v>0.0629125644311348</v>
+        <v>0.06409611236020733</v>
       </c>
       <c r="E6">
-        <v>-0.07473237209295733</v>
+        <v>0.01956726503171202</v>
       </c>
       <c r="F6">
-        <v>0.0363576908213653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.05254669649410004</v>
+      </c>
+      <c r="G6">
+        <v>-0.06729621222714054</v>
+      </c>
+      <c r="H6">
+        <v>0.1726646811632082</v>
+      </c>
+      <c r="I6">
+        <v>-0.10304165229519</v>
+      </c>
+      <c r="J6">
+        <v>-0.4363346295003447</v>
+      </c>
+      <c r="K6">
+        <v>-0.04497213845844623</v>
+      </c>
+      <c r="L6">
+        <v>0.04246964597992315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.06953816102038314</v>
+        <v>0.07006307218024378</v>
       </c>
       <c r="C7">
-        <v>-0.008334725357485185</v>
+        <v>0.04807164355857196</v>
       </c>
       <c r="D7">
-        <v>0.0548584099663485</v>
+        <v>0.0431536398703324</v>
       </c>
       <c r="E7">
-        <v>-0.05602820117260542</v>
+        <v>0.03679204742320429</v>
       </c>
       <c r="F7">
-        <v>0.007458704432263216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03711352024754045</v>
+      </c>
+      <c r="G7">
+        <v>0.01038918587922396</v>
+      </c>
+      <c r="H7">
+        <v>-0.006962225875725974</v>
+      </c>
+      <c r="I7">
+        <v>-0.0261361579428078</v>
+      </c>
+      <c r="J7">
+        <v>0.05862656676436055</v>
+      </c>
+      <c r="K7">
+        <v>0.07356627799251245</v>
+      </c>
+      <c r="L7">
+        <v>-0.03149958702928093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.03635427563243725</v>
+        <v>0.03997572119447007</v>
       </c>
       <c r="C8">
-        <v>-0.04806412433244811</v>
+        <v>0.0207209814980146</v>
       </c>
       <c r="D8">
-        <v>-0.00575649180603504</v>
+        <v>-0.008949157719265329</v>
       </c>
       <c r="E8">
-        <v>-0.05612360926980262</v>
+        <v>0.0668928784995049</v>
       </c>
       <c r="F8">
-        <v>0.03579770440863071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02451639210314889</v>
+      </c>
+      <c r="G8">
+        <v>-0.06795560425528456</v>
+      </c>
+      <c r="H8">
+        <v>0.01911507556099645</v>
+      </c>
+      <c r="I8">
+        <v>-0.10003615402879</v>
+      </c>
+      <c r="J8">
+        <v>0.005509369930828562</v>
+      </c>
+      <c r="K8">
+        <v>0.04768670673959965</v>
+      </c>
+      <c r="L8">
+        <v>0.0679149128267328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.0770068348856397</v>
+        <v>0.0856962521799869</v>
       </c>
       <c r="C9">
-        <v>-0.0538717776922531</v>
+        <v>0.05158751693507211</v>
       </c>
       <c r="D9">
-        <v>0.05199249250318013</v>
+        <v>0.02856950792409471</v>
       </c>
       <c r="E9">
-        <v>-0.02331659953876999</v>
+        <v>0.02694490409643681</v>
       </c>
       <c r="F9">
-        <v>0.01871673230832128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0608954596046101</v>
+      </c>
+      <c r="G9">
+        <v>-0.05219165965797367</v>
+      </c>
+      <c r="H9">
+        <v>-0.009980932537477977</v>
+      </c>
+      <c r="I9">
+        <v>-0.08549892041363584</v>
+      </c>
+      <c r="J9">
+        <v>-0.002356464572348619</v>
+      </c>
+      <c r="K9">
+        <v>0.03118993327942644</v>
+      </c>
+      <c r="L9">
+        <v>0.04185358137947395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.02231522486691093</v>
+        <v>0.07566723801021533</v>
       </c>
       <c r="C10">
-        <v>0.158050288150316</v>
+        <v>-0.1913144369743317</v>
       </c>
       <c r="D10">
-        <v>-0.01308295112111193</v>
+        <v>0.0049692382689443</v>
       </c>
       <c r="E10">
-        <v>-0.07486153630248225</v>
+        <v>0.05021890002852029</v>
       </c>
       <c r="F10">
-        <v>0.03958392903722534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03122859941802387</v>
+      </c>
+      <c r="G10">
+        <v>0.05334594954048089</v>
+      </c>
+      <c r="H10">
+        <v>0.02917585650472296</v>
+      </c>
+      <c r="I10">
+        <v>0.03374905461466441</v>
+      </c>
+      <c r="J10">
+        <v>0.0168834132833937</v>
+      </c>
+      <c r="K10">
+        <v>-0.01075771314839564</v>
+      </c>
+      <c r="L10">
+        <v>-0.01197257424820938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07226989905952103</v>
+        <v>0.07361580502069542</v>
       </c>
       <c r="C11">
-        <v>-0.06176330177737469</v>
+        <v>0.05972745756449944</v>
       </c>
       <c r="D11">
-        <v>0.04456541878155224</v>
+        <v>0.03070013420810891</v>
       </c>
       <c r="E11">
-        <v>-0.03133808321474508</v>
+        <v>0.01813702043741768</v>
       </c>
       <c r="F11">
-        <v>-0.006512700268451785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02651234096736449</v>
+      </c>
+      <c r="G11">
+        <v>-0.07476781012304284</v>
+      </c>
+      <c r="H11">
+        <v>-0.01779504146393348</v>
+      </c>
+      <c r="I11">
+        <v>-0.05182921629626859</v>
+      </c>
+      <c r="J11">
+        <v>0.07223069246193752</v>
+      </c>
+      <c r="K11">
+        <v>-0.03250601120837401</v>
+      </c>
+      <c r="L11">
+        <v>0.02702917186124486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06851239235148489</v>
+        <v>0.07276780339633282</v>
       </c>
       <c r="C12">
-        <v>-0.04691485461169705</v>
+        <v>0.04968850948293561</v>
       </c>
       <c r="D12">
-        <v>0.04646150913123888</v>
+        <v>0.01968858588153971</v>
       </c>
       <c r="E12">
-        <v>-0.01921294668053967</v>
+        <v>0.01286522419055712</v>
       </c>
       <c r="F12">
-        <v>0.00617452261088207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.03658028288783075</v>
+      </c>
+      <c r="G12">
+        <v>-0.06203259881085111</v>
+      </c>
+      <c r="H12">
+        <v>-0.0006428377016845633</v>
+      </c>
+      <c r="I12">
+        <v>-0.07783942065545695</v>
+      </c>
+      <c r="J12">
+        <v>0.06674473057842836</v>
+      </c>
+      <c r="K12">
+        <v>-0.006666167198876204</v>
+      </c>
+      <c r="L12">
+        <v>0.01163572418825038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07814514644592183</v>
+        <v>0.06647621747605333</v>
       </c>
       <c r="C13">
-        <v>-0.02508877320091063</v>
+        <v>0.03410515006201992</v>
       </c>
       <c r="D13">
-        <v>0.02360588817923617</v>
+        <v>-0.01399022342337029</v>
       </c>
       <c r="E13">
-        <v>-0.02720542962802061</v>
+        <v>0.02668688538174283</v>
       </c>
       <c r="F13">
-        <v>0.00978198874302255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0233373781104451</v>
+      </c>
+      <c r="G13">
+        <v>-0.02455988142141278</v>
+      </c>
+      <c r="H13">
+        <v>-0.006230681291326883</v>
+      </c>
+      <c r="I13">
+        <v>-0.06673900463059146</v>
+      </c>
+      <c r="J13">
+        <v>0.03126096574805444</v>
+      </c>
+      <c r="K13">
+        <v>0.1107161640939499</v>
+      </c>
+      <c r="L13">
+        <v>0.01694193787400918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.03390554521858617</v>
+        <v>0.04448520810414017</v>
       </c>
       <c r="C14">
-        <v>0.008965140431632903</v>
+        <v>0.008493370966985114</v>
       </c>
       <c r="D14">
-        <v>0.03451540036793679</v>
+        <v>0.02859951231973972</v>
       </c>
       <c r="E14">
-        <v>-0.007734724814679348</v>
+        <v>0.007273978406817674</v>
       </c>
       <c r="F14">
-        <v>0.01326391069735071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0389468470410097</v>
+      </c>
+      <c r="G14">
+        <v>-0.03237416797117986</v>
+      </c>
+      <c r="H14">
+        <v>-0.045264548058948</v>
+      </c>
+      <c r="I14">
+        <v>-0.05639995470597878</v>
+      </c>
+      <c r="J14">
+        <v>-0.01426150173480139</v>
+      </c>
+      <c r="K14">
+        <v>0.04875631186180956</v>
+      </c>
+      <c r="L14">
+        <v>0.0384864183060348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.05690690935259415</v>
+        <v>0.0435848544195178</v>
       </c>
       <c r="C15">
-        <v>-0.01332575666434508</v>
+        <v>0.01662675359999869</v>
       </c>
       <c r="D15">
-        <v>0.01644139410767419</v>
+        <v>-0.01272903691558104</v>
       </c>
       <c r="E15">
-        <v>-0.01256842676978353</v>
+        <v>-0.0001381832036294797</v>
       </c>
       <c r="F15">
-        <v>0.03166041740788701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.0312571501209894</v>
+      </c>
+      <c r="G15">
+        <v>-0.01365639835616596</v>
+      </c>
+      <c r="H15">
+        <v>-0.009239207414233465</v>
+      </c>
+      <c r="I15">
+        <v>-0.0316018033177118</v>
+      </c>
+      <c r="J15">
+        <v>-0.03791316507932391</v>
+      </c>
+      <c r="K15">
+        <v>0.06721705198036328</v>
+      </c>
+      <c r="L15">
+        <v>0.02195115598600005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.06140456813608178</v>
+        <v>0.0738167370613315</v>
       </c>
       <c r="C16">
-        <v>-0.06191319611962286</v>
+        <v>0.05979260140090497</v>
       </c>
       <c r="D16">
-        <v>0.04501987530826924</v>
+        <v>0.02676502721331135</v>
       </c>
       <c r="E16">
-        <v>-0.02117458965616792</v>
+        <v>0.01480204221586103</v>
       </c>
       <c r="F16">
-        <v>0.01502381429848983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.04167157931017385</v>
+      </c>
+      <c r="G16">
+        <v>-0.05199934990911832</v>
+      </c>
+      <c r="H16">
+        <v>-0.02137172208487009</v>
+      </c>
+      <c r="I16">
+        <v>-0.05049056477617032</v>
+      </c>
+      <c r="J16">
+        <v>0.05091581547880571</v>
+      </c>
+      <c r="K16">
+        <v>-0.01517431652218742</v>
+      </c>
+      <c r="L16">
+        <v>0.02356185445799545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.06358800639818808</v>
+        <v>0.05894111673060138</v>
       </c>
       <c r="C20">
-        <v>-0.0453828475940637</v>
+        <v>0.03955736643679053</v>
       </c>
       <c r="D20">
-        <v>0.01958293200617129</v>
+        <v>0.01585954935479357</v>
       </c>
       <c r="E20">
-        <v>-0.03123222157926349</v>
+        <v>0.02284290037845649</v>
       </c>
       <c r="F20">
-        <v>0.01280069142287624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01122399258572951</v>
+      </c>
+      <c r="G20">
+        <v>-0.04132061710303433</v>
+      </c>
+      <c r="H20">
+        <v>-0.02881213489801398</v>
+      </c>
+      <c r="I20">
+        <v>-0.1093629360899592</v>
+      </c>
+      <c r="J20">
+        <v>0.03415719174076807</v>
+      </c>
+      <c r="K20">
+        <v>0.04196320118991741</v>
+      </c>
+      <c r="L20">
+        <v>-0.01177929237569048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.03873546161680853</v>
+        <v>0.02948641301288938</v>
       </c>
       <c r="C21">
-        <v>-0.02156536929037278</v>
+        <v>0.02388898350291871</v>
       </c>
       <c r="D21">
-        <v>-0.02154110244278842</v>
+        <v>-0.03217474610878837</v>
       </c>
       <c r="E21">
-        <v>-0.01615917580452782</v>
+        <v>0.01578893223451507</v>
       </c>
       <c r="F21">
-        <v>0.05620295384779303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01387757259409334</v>
+      </c>
+      <c r="G21">
+        <v>-0.008319599819337475</v>
+      </c>
+      <c r="H21">
+        <v>0.05436018889640658</v>
+      </c>
+      <c r="I21">
+        <v>-0.05638438947251427</v>
+      </c>
+      <c r="J21">
+        <v>-0.05256007227091927</v>
+      </c>
+      <c r="K21">
+        <v>0.0451848712082644</v>
+      </c>
+      <c r="L21">
+        <v>0.02023816238505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.1198581967112463</v>
+        <v>0.08986626330722611</v>
       </c>
       <c r="C22">
-        <v>-0.1156755062524428</v>
+        <v>0.08661264812623547</v>
       </c>
       <c r="D22">
-        <v>-0.02464399020763574</v>
+        <v>-0.4064591950501295</v>
       </c>
       <c r="E22">
-        <v>-0.009608365241095306</v>
+        <v>0.1461062049430865</v>
       </c>
       <c r="F22">
-        <v>0.4071876488150594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3851264641791918</v>
+      </c>
+      <c r="G22">
+        <v>0.2762636126662498</v>
+      </c>
+      <c r="H22">
+        <v>0.04622710477152994</v>
+      </c>
+      <c r="I22">
+        <v>0.1892854460469234</v>
+      </c>
+      <c r="J22">
+        <v>-0.03565548202809217</v>
+      </c>
+      <c r="K22">
+        <v>-0.03872980329638556</v>
+      </c>
+      <c r="L22">
+        <v>-0.06677003392191008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.120876941520231</v>
+        <v>0.09081617613771265</v>
       </c>
       <c r="C23">
-        <v>-0.1148795076511725</v>
+        <v>0.08693227505305842</v>
       </c>
       <c r="D23">
-        <v>-0.02265881448627595</v>
+        <v>-0.4068126270536647</v>
       </c>
       <c r="E23">
-        <v>-0.01063390569773419</v>
+        <v>0.1475996461506306</v>
       </c>
       <c r="F23">
-        <v>0.4092389998708463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3895816809395949</v>
+      </c>
+      <c r="G23">
+        <v>0.2711390413339238</v>
+      </c>
+      <c r="H23">
+        <v>0.04486194394685174</v>
+      </c>
+      <c r="I23">
+        <v>0.1895565621193968</v>
+      </c>
+      <c r="J23">
+        <v>-0.04161639584054923</v>
+      </c>
+      <c r="K23">
+        <v>-0.04099468498616232</v>
+      </c>
+      <c r="L23">
+        <v>-0.06742951803861683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.08324919929498573</v>
+        <v>0.08275271608973114</v>
       </c>
       <c r="C24">
-        <v>-0.06009985829009929</v>
+        <v>0.05903096659442517</v>
       </c>
       <c r="D24">
-        <v>0.04286806623593602</v>
+        <v>0.01716831739812839</v>
       </c>
       <c r="E24">
-        <v>-0.03539461485121149</v>
+        <v>0.02455512068947937</v>
       </c>
       <c r="F24">
-        <v>0.02156918140402728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.04419907049356539</v>
+      </c>
+      <c r="G24">
+        <v>-0.0704801368888284</v>
+      </c>
+      <c r="H24">
+        <v>-5.15906664412837e-05</v>
+      </c>
+      <c r="I24">
+        <v>-0.06476910547791308</v>
+      </c>
+      <c r="J24">
+        <v>0.05142167908723275</v>
+      </c>
+      <c r="K24">
+        <v>-0.01921138514131416</v>
+      </c>
+      <c r="L24">
+        <v>0.03137065488807686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07851280280779355</v>
+        <v>0.07853221477369328</v>
       </c>
       <c r="C25">
-        <v>-0.04872975657029534</v>
+        <v>0.0428224993896176</v>
       </c>
       <c r="D25">
-        <v>0.05375452803920343</v>
+        <v>0.02958099841283383</v>
       </c>
       <c r="E25">
-        <v>-0.0454407208359674</v>
+        <v>0.02319561736536793</v>
       </c>
       <c r="F25">
-        <v>0.0315074052746498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04787969268903959</v>
+      </c>
+      <c r="G25">
+        <v>-0.06521931657788672</v>
+      </c>
+      <c r="H25">
+        <v>-0.01998229403745724</v>
+      </c>
+      <c r="I25">
+        <v>-0.08139465273816684</v>
+      </c>
+      <c r="J25">
+        <v>0.05934479032844935</v>
+      </c>
+      <c r="K25">
+        <v>-0.03708393307425965</v>
+      </c>
+      <c r="L25">
+        <v>0.01696969699776138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05270795901668994</v>
+        <v>0.04583094633313804</v>
       </c>
       <c r="C26">
-        <v>-0.01304827012185862</v>
+        <v>0.0243931935525095</v>
       </c>
       <c r="D26">
-        <v>0.004615130355095885</v>
+        <v>-0.01481067504028681</v>
       </c>
       <c r="E26">
-        <v>-0.03528790554239902</v>
+        <v>0.01063089890846827</v>
       </c>
       <c r="F26">
-        <v>-0.01606103045842116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01462299026455571</v>
+      </c>
+      <c r="G26">
+        <v>-0.02296510368394933</v>
+      </c>
+      <c r="H26">
+        <v>-0.02497412462333541</v>
+      </c>
+      <c r="I26">
+        <v>-0.02947778054516085</v>
+      </c>
+      <c r="J26">
+        <v>-0.02894413625295262</v>
+      </c>
+      <c r="K26">
+        <v>0.1204611877827234</v>
+      </c>
+      <c r="L26">
+        <v>0.004155169470975164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.05510734017394179</v>
+        <v>0.09537211832978247</v>
       </c>
       <c r="C28">
-        <v>0.2962168922553036</v>
+        <v>-0.2949389439358267</v>
       </c>
       <c r="D28">
-        <v>-0.03095210048201058</v>
+        <v>-0.01836823723678391</v>
       </c>
       <c r="E28">
-        <v>-0.07981446155903761</v>
+        <v>0.03906796723301163</v>
       </c>
       <c r="F28">
-        <v>-0.001766302228811512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.00164495459123325</v>
+      </c>
+      <c r="G28">
+        <v>-0.00578000896353724</v>
+      </c>
+      <c r="H28">
+        <v>0.035829465554728</v>
+      </c>
+      <c r="I28">
+        <v>0.02817942637236877</v>
+      </c>
+      <c r="J28">
+        <v>-0.01904101184803953</v>
+      </c>
+      <c r="K28">
+        <v>0.05217389907401758</v>
+      </c>
+      <c r="L28">
+        <v>0.03269703002011284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05723715031383932</v>
+        <v>0.05354800956877385</v>
       </c>
       <c r="C29">
-        <v>0.004584767987011686</v>
+        <v>0.01276911762054215</v>
       </c>
       <c r="D29">
-        <v>0.03240105598997766</v>
+        <v>0.01472636537079935</v>
       </c>
       <c r="E29">
-        <v>-0.0216539249710649</v>
+        <v>0.0224842654100374</v>
       </c>
       <c r="F29">
-        <v>0.03845421351716384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03881100075044528</v>
+      </c>
+      <c r="G29">
+        <v>-0.03234753313738795</v>
+      </c>
+      <c r="H29">
+        <v>-0.05472952152961352</v>
+      </c>
+      <c r="I29">
+        <v>-0.03912679851427879</v>
+      </c>
+      <c r="J29">
+        <v>-0.01604643541357364</v>
+      </c>
+      <c r="K29">
+        <v>0.03899615396323355</v>
+      </c>
+      <c r="L29">
+        <v>0.003722223287124917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1501244775487446</v>
+        <v>0.126537095310176</v>
       </c>
       <c r="C30">
-        <v>-0.06082497917563111</v>
+        <v>0.0618462530202268</v>
       </c>
       <c r="D30">
-        <v>0.08029560515137998</v>
+        <v>0.004442716705319247</v>
       </c>
       <c r="E30">
-        <v>-0.06352623347612094</v>
+        <v>0.06789825815578095</v>
       </c>
       <c r="F30">
-        <v>0.05352454482978746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1108622363723937</v>
+      </c>
+      <c r="G30">
+        <v>-0.08451721526685094</v>
+      </c>
+      <c r="H30">
+        <v>0.09788772739048385</v>
+      </c>
+      <c r="I30">
+        <v>-0.2162931085925907</v>
+      </c>
+      <c r="J30">
+        <v>0.1538786186767689</v>
+      </c>
+      <c r="K30">
+        <v>0.2816903350246796</v>
+      </c>
+      <c r="L30">
+        <v>-0.1310184735548851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.06150590546222839</v>
+        <v>0.04769444873443638</v>
       </c>
       <c r="C31">
-        <v>-0.01813782940537422</v>
+        <v>0.04102960070923069</v>
       </c>
       <c r="D31">
-        <v>0.03338097196299823</v>
+        <v>0.0002402292798825935</v>
       </c>
       <c r="E31">
-        <v>-0.001488429857147611</v>
+        <v>-0.00515866597161402</v>
       </c>
       <c r="F31">
-        <v>0.002451856654513445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02365170574313859</v>
+      </c>
+      <c r="G31">
+        <v>-0.004498501261812561</v>
+      </c>
+      <c r="H31">
+        <v>-0.05770440014012514</v>
+      </c>
+      <c r="I31">
+        <v>-0.04683829991757626</v>
+      </c>
+      <c r="J31">
+        <v>-0.01535918036264029</v>
+      </c>
+      <c r="K31">
+        <v>0.01831073662270788</v>
+      </c>
+      <c r="L31">
+        <v>-0.01854966038254459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04307690431107362</v>
+        <v>0.04822594712642404</v>
       </c>
       <c r="C32">
-        <v>-0.003900579917691002</v>
+        <v>-0.006299918214501326</v>
       </c>
       <c r="D32">
-        <v>-0.003026094863864502</v>
+        <v>-0.03867055226707947</v>
       </c>
       <c r="E32">
-        <v>0.0109222085423331</v>
+        <v>0.01094993770730496</v>
       </c>
       <c r="F32">
-        <v>0.06431113343063852</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0529154257161764</v>
+      </c>
+      <c r="G32">
+        <v>-0.000251709940081229</v>
+      </c>
+      <c r="H32">
+        <v>0.003134715550543494</v>
+      </c>
+      <c r="I32">
+        <v>0.00794013675059242</v>
+      </c>
+      <c r="J32">
+        <v>0.005697109728278641</v>
+      </c>
+      <c r="K32">
+        <v>0.1359167129467006</v>
+      </c>
+      <c r="L32">
+        <v>0.004275040466440064</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1018503520164012</v>
+        <v>0.1057930313632427</v>
       </c>
       <c r="C33">
-        <v>-0.02633597450190464</v>
+        <v>0.04586532195254461</v>
       </c>
       <c r="D33">
-        <v>0.04369929104818991</v>
+        <v>0.006689198921981996</v>
       </c>
       <c r="E33">
-        <v>-0.00772583381005709</v>
+        <v>-0.01774216117782683</v>
       </c>
       <c r="F33">
-        <v>-0.01456183282142211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.03866208895507321</v>
+      </c>
+      <c r="G33">
+        <v>-0.03408103769285292</v>
+      </c>
+      <c r="H33">
+        <v>-0.03813465092746537</v>
+      </c>
+      <c r="I33">
+        <v>-0.0702013466055012</v>
+      </c>
+      <c r="J33">
+        <v>0.007567042041702354</v>
+      </c>
+      <c r="K33">
+        <v>0.03532207419060167</v>
+      </c>
+      <c r="L33">
+        <v>0.06569365964415445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06202621946132092</v>
+        <v>0.06895683751802657</v>
       </c>
       <c r="C34">
-        <v>-0.06005509213288988</v>
+        <v>0.04786752751527144</v>
       </c>
       <c r="D34">
-        <v>0.03255251566355759</v>
+        <v>0.02010945132564537</v>
       </c>
       <c r="E34">
-        <v>-0.02343145138451756</v>
+        <v>0.01165931517141616</v>
       </c>
       <c r="F34">
-        <v>0.03012987193723904</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03087419830212558</v>
+      </c>
+      <c r="G34">
+        <v>-0.05570137404715419</v>
+      </c>
+      <c r="H34">
+        <v>-0.02399416084393226</v>
+      </c>
+      <c r="I34">
+        <v>-0.06081627918739252</v>
+      </c>
+      <c r="J34">
+        <v>0.0409966552512214</v>
+      </c>
+      <c r="K34">
+        <v>-0.03776742643121326</v>
+      </c>
+      <c r="L34">
+        <v>0.03986117853615695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04054871301025654</v>
+        <v>0.03461176631708351</v>
       </c>
       <c r="C35">
-        <v>-0.009951608528176574</v>
+        <v>0.02116385152481856</v>
       </c>
       <c r="D35">
-        <v>0.02171227502797571</v>
+        <v>0.008787845331763137</v>
       </c>
       <c r="E35">
-        <v>-0.002521519210392717</v>
+        <v>-0.00651651321470978</v>
       </c>
       <c r="F35">
-        <v>0.009340832640927188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01957641771329747</v>
+      </c>
+      <c r="G35">
+        <v>0.007329143512425273</v>
+      </c>
+      <c r="H35">
+        <v>-0.02669072785320753</v>
+      </c>
+      <c r="I35">
+        <v>-0.06291284420439335</v>
+      </c>
+      <c r="J35">
+        <v>0.02690583174921968</v>
+      </c>
+      <c r="K35">
+        <v>0.02420766431726498</v>
+      </c>
+      <c r="L35">
+        <v>-0.02691072271339582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03768375330698936</v>
+        <v>0.03365385054433129</v>
       </c>
       <c r="C36">
-        <v>-0.009759198908699605</v>
+        <v>0.01163575166699878</v>
       </c>
       <c r="D36">
-        <v>0.01481761532714782</v>
+        <v>-0.005011814351903129</v>
       </c>
       <c r="E36">
-        <v>-0.03282533306331452</v>
+        <v>0.02260630103277754</v>
       </c>
       <c r="F36">
-        <v>0.01755665135851874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.03023977457343793</v>
+      </c>
+      <c r="G36">
+        <v>-0.03045580548495432</v>
+      </c>
+      <c r="H36">
+        <v>-0.01224741621703935</v>
+      </c>
+      <c r="I36">
+        <v>-0.0674101071896331</v>
+      </c>
+      <c r="J36">
+        <v>0.004024769065755939</v>
+      </c>
+      <c r="K36">
+        <v>0.04392817551244941</v>
+      </c>
+      <c r="L36">
+        <v>0.00633304969820006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.06856267287215831</v>
+        <v>0.05124352315512764</v>
       </c>
       <c r="C38">
-        <v>-0.02283177216516743</v>
+        <v>0.04557689275328766</v>
       </c>
       <c r="D38">
-        <v>-0.01436228916225295</v>
+        <v>-0.03070640368064772</v>
       </c>
       <c r="E38">
-        <v>0.01564567481546656</v>
+        <v>0.01583091909386136</v>
       </c>
       <c r="F38">
-        <v>0.05350507286506272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01357956072410933</v>
+      </c>
+      <c r="G38">
+        <v>0.01223264877521456</v>
+      </c>
+      <c r="H38">
+        <v>-0.01555273743904721</v>
+      </c>
+      <c r="I38">
+        <v>0.1353116562723713</v>
+      </c>
+      <c r="J38">
+        <v>0.01918685343549314</v>
+      </c>
+      <c r="K38">
+        <v>0.08312662830276044</v>
+      </c>
+      <c r="L38">
+        <v>0.04578009496263326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.0928854404220788</v>
+        <v>0.09691022065210191</v>
       </c>
       <c r="C39">
-        <v>-0.04644937438546586</v>
+        <v>0.05294857494592824</v>
       </c>
       <c r="D39">
-        <v>0.04302442604680846</v>
+        <v>0.01856496919376231</v>
       </c>
       <c r="E39">
-        <v>-0.005674449668253453</v>
+        <v>0.01525091337514513</v>
       </c>
       <c r="F39">
-        <v>0.02149732244325328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.03950901043827718</v>
+      </c>
+      <c r="G39">
+        <v>-0.05663689105416118</v>
+      </c>
+      <c r="H39">
+        <v>-0.005275668725955612</v>
+      </c>
+      <c r="I39">
+        <v>-0.07281828747631924</v>
+      </c>
+      <c r="J39">
+        <v>0.1683714374600317</v>
+      </c>
+      <c r="K39">
+        <v>0.01981179435067078</v>
+      </c>
+      <c r="L39">
+        <v>-0.03548033996456889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.07083126040252133</v>
+        <v>0.04303421146870334</v>
       </c>
       <c r="C40">
-        <v>-0.01020543076078166</v>
+        <v>0.04213933156053181</v>
       </c>
       <c r="D40">
-        <v>0.0206440622138861</v>
+        <v>-0.05640363561439893</v>
       </c>
       <c r="E40">
-        <v>-0.01775013810800338</v>
+        <v>0.0006862776493756544</v>
       </c>
       <c r="F40">
-        <v>0.1013080922240409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03792884568296102</v>
+      </c>
+      <c r="G40">
+        <v>-0.09082244050461069</v>
+      </c>
+      <c r="H40">
+        <v>0.1145893134207437</v>
+      </c>
+      <c r="I40">
+        <v>-0.06287819465555171</v>
+      </c>
+      <c r="J40">
+        <v>0.2541297210984311</v>
+      </c>
+      <c r="K40">
+        <v>0.1362517672059451</v>
+      </c>
+      <c r="L40">
+        <v>0.05456454757702324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.05930272976167494</v>
+        <v>0.04707051751405824</v>
       </c>
       <c r="C41">
-        <v>-0.02638183503590999</v>
+        <v>0.02945929857020888</v>
       </c>
       <c r="D41">
-        <v>0.01130952947890268</v>
+        <v>0.01107479658705884</v>
       </c>
       <c r="E41">
-        <v>0.009903626365579898</v>
+        <v>-0.006716763526509837</v>
       </c>
       <c r="F41">
-        <v>0.007788459913669004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.02050443263057962</v>
+      </c>
+      <c r="G41">
+        <v>-0.02400329077238799</v>
+      </c>
+      <c r="H41">
+        <v>-0.03088207923515224</v>
+      </c>
+      <c r="I41">
+        <v>5.612194020392447e-05</v>
+      </c>
+      <c r="J41">
+        <v>0.02845618050840676</v>
+      </c>
+      <c r="K41">
+        <v>0.04791954134748929</v>
+      </c>
+      <c r="L41">
+        <v>0.02512288429403493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06379493744496002</v>
+        <v>0.06090344593322002</v>
       </c>
       <c r="C43">
-        <v>-0.01478313216183649</v>
+        <v>0.0356537072584805</v>
       </c>
       <c r="D43">
-        <v>0.01714293907452103</v>
+        <v>0.00548793309643084</v>
       </c>
       <c r="E43">
-        <v>-0.01832278031665882</v>
+        <v>0.02110352543093894</v>
       </c>
       <c r="F43">
-        <v>-0.004467384024096892</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.008136123839723435</v>
+      </c>
+      <c r="G43">
+        <v>-0.01348994180056595</v>
+      </c>
+      <c r="H43">
+        <v>-0.05354119995661293</v>
+      </c>
+      <c r="I43">
+        <v>-0.01022619843344609</v>
+      </c>
+      <c r="J43">
+        <v>0.01752427866398853</v>
+      </c>
+      <c r="K43">
+        <v>0.01834626139520802</v>
+      </c>
+      <c r="L43">
+        <v>0.02604030322524994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.0890449067516796</v>
+        <v>0.09083256330399178</v>
       </c>
       <c r="C44">
-        <v>-0.04600822374741236</v>
+        <v>0.05412986389135689</v>
       </c>
       <c r="D44">
-        <v>0.006672014604598452</v>
+        <v>-0.01961117110673816</v>
       </c>
       <c r="E44">
-        <v>-0.09478358568321871</v>
+        <v>0.1082907383465344</v>
       </c>
       <c r="F44">
-        <v>0.1081396964133127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.06916954258145241</v>
+      </c>
+      <c r="G44">
+        <v>-0.08496445944572099</v>
+      </c>
+      <c r="H44">
+        <v>-0.03711587342147484</v>
+      </c>
+      <c r="I44">
+        <v>-0.1154798591707072</v>
+      </c>
+      <c r="J44">
+        <v>0.1000691454982365</v>
+      </c>
+      <c r="K44">
+        <v>0.02472607175844112</v>
+      </c>
+      <c r="L44">
+        <v>0.0391649043132039</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.03262351690171555</v>
+        <v>0.04687179715681065</v>
       </c>
       <c r="C46">
-        <v>-0.03324123191960245</v>
+        <v>0.03284800280783284</v>
       </c>
       <c r="D46">
-        <v>0.01912525232999586</v>
+        <v>0.008628430132498756</v>
       </c>
       <c r="E46">
-        <v>-0.01733151265663445</v>
+        <v>0.02690371470175263</v>
       </c>
       <c r="F46">
-        <v>0.04518119511662162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04354795899501322</v>
+      </c>
+      <c r="G46">
+        <v>-0.01152011791967426</v>
+      </c>
+      <c r="H46">
+        <v>-0.02033695737703291</v>
+      </c>
+      <c r="I46">
+        <v>-0.03784825013641423</v>
+      </c>
+      <c r="J46">
+        <v>-0.02562058698081898</v>
+      </c>
+      <c r="K46">
+        <v>0.04912362253431907</v>
+      </c>
+      <c r="L46">
+        <v>0.04927024531450794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.03848808849844267</v>
+        <v>0.04709780600703342</v>
       </c>
       <c r="C47">
-        <v>0.004725592507568598</v>
+        <v>0.01162172835764179</v>
       </c>
       <c r="D47">
-        <v>0.01075398672460296</v>
+        <v>-0.0123710515773811</v>
       </c>
       <c r="E47">
-        <v>-0.0165571175983963</v>
+        <v>0.004786465394425976</v>
       </c>
       <c r="F47">
-        <v>0.06467122831263265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04120837245317385</v>
+      </c>
+      <c r="G47">
+        <v>0.00497223691368837</v>
+      </c>
+      <c r="H47">
+        <v>-0.02222132522383869</v>
+      </c>
+      <c r="I47">
+        <v>-0.03308748287584699</v>
+      </c>
+      <c r="J47">
+        <v>-0.01904356387926644</v>
+      </c>
+      <c r="K47">
+        <v>0.00205616822653345</v>
+      </c>
+      <c r="L47">
+        <v>-0.001620358923036443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.05005125838493113</v>
+        <v>0.04478345285053754</v>
       </c>
       <c r="C48">
-        <v>-0.01351243318407028</v>
+        <v>0.01265584955285807</v>
       </c>
       <c r="D48">
-        <v>0.02930669788617804</v>
+        <v>-0.01161048091899357</v>
       </c>
       <c r="E48">
-        <v>-0.02385570403743566</v>
+        <v>0.008199166721855475</v>
       </c>
       <c r="F48">
-        <v>0.04215564642792085</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.04234403476459463</v>
+      </c>
+      <c r="G48">
+        <v>-0.01188578005701939</v>
+      </c>
+      <c r="H48">
+        <v>0.00426716912912355</v>
+      </c>
+      <c r="I48">
+        <v>-0.05823082248319042</v>
+      </c>
+      <c r="J48">
+        <v>-0.006919527601087256</v>
+      </c>
+      <c r="K48">
+        <v>0.04649726385822306</v>
+      </c>
+      <c r="L48">
+        <v>-0.03279290927251275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.1482530162720336</v>
+        <v>0.2060593318146672</v>
       </c>
       <c r="C49">
-        <v>-0.02050115272089046</v>
+        <v>0.02738310486671574</v>
       </c>
       <c r="D49">
-        <v>0.09476640027025016</v>
+        <v>0.1823161129981611</v>
       </c>
       <c r="E49">
-        <v>-0.02019932280282376</v>
+        <v>-0.0278253928887881</v>
       </c>
       <c r="F49">
-        <v>-0.1400433778477698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.04925466676939777</v>
+      </c>
+      <c r="G49">
+        <v>0.1646501457496178</v>
+      </c>
+      <c r="H49">
+        <v>0.1850225731099579</v>
+      </c>
+      <c r="I49">
+        <v>0.1244625888347299</v>
+      </c>
+      <c r="J49">
+        <v>0.1229050686284035</v>
+      </c>
+      <c r="K49">
+        <v>-0.1663555199280316</v>
+      </c>
+      <c r="L49">
+        <v>0.2000933756547847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.0667280849500813</v>
+        <v>0.05576008747943136</v>
       </c>
       <c r="C50">
-        <v>-0.02114927994499196</v>
+        <v>0.03749936837946938</v>
       </c>
       <c r="D50">
-        <v>0.04013040488856476</v>
+        <v>0.00706644565922761</v>
       </c>
       <c r="E50">
-        <v>-0.002066878790261076</v>
+        <v>-0.009468843933918052</v>
       </c>
       <c r="F50">
-        <v>0.02374789454568193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04003458843042375</v>
+      </c>
+      <c r="G50">
+        <v>-0.02227378539803567</v>
+      </c>
+      <c r="H50">
+        <v>-0.05553573548448858</v>
+      </c>
+      <c r="I50">
+        <v>-0.04074882226427735</v>
+      </c>
+      <c r="J50">
+        <v>-0.03726779159711528</v>
+      </c>
+      <c r="K50">
+        <v>0.02996208132512083</v>
+      </c>
+      <c r="L50">
+        <v>-0.04210969834626892</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.0378832056547139</v>
+        <v>0.04020138376178425</v>
       </c>
       <c r="C51">
-        <v>-0.002265502834544305</v>
+        <v>0.00260564158364745</v>
       </c>
       <c r="D51">
-        <v>-0.01247958375795351</v>
+        <v>-0.009599750290691792</v>
       </c>
       <c r="E51">
-        <v>0.00192286010484593</v>
+        <v>0.01873164557849207</v>
       </c>
       <c r="F51">
-        <v>0.002503421287913947</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03381508780711159</v>
+      </c>
+      <c r="G51">
+        <v>0.01553200791149219</v>
+      </c>
+      <c r="H51">
+        <v>0.01849105002712984</v>
+      </c>
+      <c r="I51">
+        <v>0.01026795767566072</v>
+      </c>
+      <c r="J51">
+        <v>0.04823059611214291</v>
+      </c>
+      <c r="K51">
+        <v>-0.06337037745468733</v>
+      </c>
+      <c r="L51">
+        <v>0.03238679412467939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1511505768258481</v>
+        <v>0.1556485216552864</v>
       </c>
       <c r="C53">
-        <v>0.03249482202606638</v>
+        <v>0.01245491953373198</v>
       </c>
       <c r="D53">
-        <v>0.0738327512101697</v>
+        <v>0.07151040006315304</v>
       </c>
       <c r="E53">
-        <v>-0.00298059000176839</v>
+        <v>-0.01503097716424698</v>
       </c>
       <c r="F53">
-        <v>-0.04824015341214356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0004972366555957196</v>
+      </c>
+      <c r="G53">
+        <v>0.02242049312273929</v>
+      </c>
+      <c r="H53">
+        <v>-0.2379233990327514</v>
+      </c>
+      <c r="I53">
+        <v>0.06061931402803591</v>
+      </c>
+      <c r="J53">
+        <v>-0.0423568847385329</v>
+      </c>
+      <c r="K53">
+        <v>-0.06986891084137971</v>
+      </c>
+      <c r="L53">
+        <v>-0.03865985701996205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.06265331924588065</v>
+        <v>0.06160414830629791</v>
       </c>
       <c r="C54">
-        <v>-0.01440656941169119</v>
+        <v>0.01173687340595752</v>
       </c>
       <c r="D54">
-        <v>-0.004326962704070785</v>
+        <v>-0.02058602700999885</v>
       </c>
       <c r="E54">
-        <v>-0.04357603510333108</v>
+        <v>0.03809467297836542</v>
       </c>
       <c r="F54">
-        <v>0.06339356798308918</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.05107869903742091</v>
+      </c>
+      <c r="G54">
+        <v>-0.07012060375777961</v>
+      </c>
+      <c r="H54">
+        <v>-0.01262901211820683</v>
+      </c>
+      <c r="I54">
+        <v>-0.112414599400824</v>
+      </c>
+      <c r="J54">
+        <v>-0.01620686843774197</v>
+      </c>
+      <c r="K54">
+        <v>0.07046048608508906</v>
+      </c>
+      <c r="L54">
+        <v>0.007372502910501805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09400483969974706</v>
+        <v>0.09565714661657754</v>
       </c>
       <c r="C55">
-        <v>0.007757532938614551</v>
+        <v>0.02355298830039096</v>
       </c>
       <c r="D55">
-        <v>0.05368591998884713</v>
+        <v>0.04834234775837598</v>
       </c>
       <c r="E55">
-        <v>-0.02404429977603441</v>
+        <v>0.01078355755181357</v>
       </c>
       <c r="F55">
-        <v>0.01131395623435553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01150789022931811</v>
+      </c>
+      <c r="G55">
+        <v>-0.03180810333786414</v>
+      </c>
+      <c r="H55">
+        <v>-0.1758259710693292</v>
+      </c>
+      <c r="I55">
+        <v>-0.004150767105340071</v>
+      </c>
+      <c r="J55">
+        <v>-0.02410879529512497</v>
+      </c>
+      <c r="K55">
+        <v>-0.05814415093124568</v>
+      </c>
+      <c r="L55">
+        <v>-0.01488299148735484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.151315758174101</v>
+        <v>0.1513896591815515</v>
       </c>
       <c r="C56">
-        <v>0.0325227392957072</v>
+        <v>0.0321664645387495</v>
       </c>
       <c r="D56">
-        <v>0.0881778241144775</v>
+        <v>0.07158654563409744</v>
       </c>
       <c r="E56">
-        <v>-0.04216202727392512</v>
+        <v>0.007216859684063624</v>
       </c>
       <c r="F56">
-        <v>-0.06096338897538272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.01332964371542811</v>
+      </c>
+      <c r="G56">
+        <v>0.003234183773228954</v>
+      </c>
+      <c r="H56">
+        <v>-0.2418577977988658</v>
+      </c>
+      <c r="I56">
+        <v>0.07816797623532293</v>
+      </c>
+      <c r="J56">
+        <v>-0.02736414572651904</v>
+      </c>
+      <c r="K56">
+        <v>-0.03007425790375442</v>
+      </c>
+      <c r="L56">
+        <v>-0.07556464391452752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1115071041059179</v>
+        <v>0.07382876174138801</v>
       </c>
       <c r="C58">
-        <v>-0.06039739377908195</v>
+        <v>0.05114862938319949</v>
       </c>
       <c r="D58">
-        <v>-0.1540490316602026</v>
+        <v>-0.176141685033657</v>
       </c>
       <c r="E58">
-        <v>-0.1242379975480665</v>
+        <v>0.08422110865314837</v>
       </c>
       <c r="F58">
-        <v>0.2476124650076877</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.05826802324769396</v>
+      </c>
+      <c r="G58">
+        <v>0.09084878711402052</v>
+      </c>
+      <c r="H58">
+        <v>0.1692633171725325</v>
+      </c>
+      <c r="I58">
+        <v>-0.5389104174686236</v>
+      </c>
+      <c r="J58">
+        <v>0.09180340820199055</v>
+      </c>
+      <c r="K58">
+        <v>-0.2239634680477004</v>
+      </c>
+      <c r="L58">
+        <v>-0.3959758456136808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1469625774274883</v>
+        <v>0.1803728974415284</v>
       </c>
       <c r="C59">
-        <v>0.4353834769324585</v>
+        <v>-0.3482591820976758</v>
       </c>
       <c r="D59">
-        <v>-0.06117151743030568</v>
+        <v>-0.02959931446788087</v>
       </c>
       <c r="E59">
-        <v>-0.09154198566601503</v>
+        <v>0.03312574931684472</v>
       </c>
       <c r="F59">
-        <v>0.05118275696612972</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.03879065886995637</v>
+      </c>
+      <c r="G59">
+        <v>-0.02236934435779091</v>
+      </c>
+      <c r="H59">
+        <v>-0.03445642184978723</v>
+      </c>
+      <c r="I59">
+        <v>0.05970077712766893</v>
+      </c>
+      <c r="J59">
+        <v>0.0489927697845208</v>
+      </c>
+      <c r="K59">
+        <v>0.004180365338301051</v>
+      </c>
+      <c r="L59">
+        <v>-0.002317820313881996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2218611479735938</v>
+        <v>0.2454759286125096</v>
       </c>
       <c r="C60">
-        <v>0.0145047246601613</v>
+        <v>0.04951717285423965</v>
       </c>
       <c r="D60">
-        <v>0.09096045452086175</v>
+        <v>0.1349949028319322</v>
       </c>
       <c r="E60">
-        <v>-0.05112035915457994</v>
+        <v>0.0132195994225132</v>
       </c>
       <c r="F60">
-        <v>-0.04340739371182848</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.03719865468787243</v>
+      </c>
+      <c r="G60">
+        <v>0.03385787670066402</v>
+      </c>
+      <c r="H60">
+        <v>0.1127332831348236</v>
+      </c>
+      <c r="I60">
+        <v>0.102704653256529</v>
+      </c>
+      <c r="J60">
+        <v>-0.07583579474713505</v>
+      </c>
+      <c r="K60">
+        <v>-0.1528473428194682</v>
+      </c>
+      <c r="L60">
+        <v>0.06057496761809918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.07946652838768224</v>
+        <v>0.0881741340658377</v>
       </c>
       <c r="C61">
-        <v>-0.02379129829419539</v>
+        <v>0.03771754445728016</v>
       </c>
       <c r="D61">
-        <v>0.03553827811425833</v>
+        <v>0.02134281372250149</v>
       </c>
       <c r="E61">
-        <v>-0.008144880072689155</v>
+        <v>0.02247065079464174</v>
       </c>
       <c r="F61">
-        <v>0.008144252203439643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02996690704484295</v>
+      </c>
+      <c r="G61">
+        <v>-0.06615817944164695</v>
+      </c>
+      <c r="H61">
+        <v>-0.0567703568028223</v>
+      </c>
+      <c r="I61">
+        <v>-0.03669844660370573</v>
+      </c>
+      <c r="J61">
+        <v>0.09042295394213225</v>
+      </c>
+      <c r="K61">
+        <v>0.01761049111525432</v>
+      </c>
+      <c r="L61">
+        <v>0.004807705719904448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.147521303938056</v>
+        <v>0.1457135117057055</v>
       </c>
       <c r="C62">
-        <v>0.02298837576325259</v>
+        <v>0.03692373919176296</v>
       </c>
       <c r="D62">
-        <v>0.04292845264574666</v>
+        <v>0.05559151778197356</v>
       </c>
       <c r="E62">
-        <v>0.01652057332965364</v>
+        <v>-0.03981039982725804</v>
       </c>
       <c r="F62">
-        <v>-0.08593703719831239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.01897134843127721</v>
+      </c>
+      <c r="G62">
+        <v>-0.01936118922134604</v>
+      </c>
+      <c r="H62">
+        <v>-0.2321844600570319</v>
+      </c>
+      <c r="I62">
+        <v>0.06424383718684955</v>
+      </c>
+      <c r="J62">
+        <v>-0.08934158042542777</v>
+      </c>
+      <c r="K62">
+        <v>-0.03803123917653363</v>
+      </c>
+      <c r="L62">
+        <v>-0.05314860181844893</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.06041022053231021</v>
+        <v>0.05298772639012635</v>
       </c>
       <c r="C63">
-        <v>-0.02826687895491348</v>
+        <v>0.02378265695978644</v>
       </c>
       <c r="D63">
-        <v>0.02108178917357019</v>
+        <v>0.001354685721338106</v>
       </c>
       <c r="E63">
-        <v>-0.01474283068236227</v>
+        <v>-0.00235212906820573</v>
       </c>
       <c r="F63">
-        <v>0.00552175484583361</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02958693297591411</v>
+      </c>
+      <c r="G63">
+        <v>-0.04730173955839673</v>
+      </c>
+      <c r="H63">
+        <v>-0.01879310978124424</v>
+      </c>
+      <c r="I63">
+        <v>-0.05378971489868009</v>
+      </c>
+      <c r="J63">
+        <v>-0.02981218059084853</v>
+      </c>
+      <c r="K63">
+        <v>0.03644439491421891</v>
+      </c>
+      <c r="L63">
+        <v>-0.01177738663665897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.09718110579520423</v>
+        <v>0.1039684399728026</v>
       </c>
       <c r="C64">
-        <v>0.008790933004629126</v>
+        <v>0.01707657504059819</v>
       </c>
       <c r="D64">
-        <v>0.06184854919130302</v>
+        <v>0.04338661542858055</v>
       </c>
       <c r="E64">
-        <v>-0.03492251988095776</v>
+        <v>0.0357236375509488</v>
       </c>
       <c r="F64">
-        <v>0.04934583211511989</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.07048809476371413</v>
+      </c>
+      <c r="G64">
+        <v>-0.04764361798035702</v>
+      </c>
+      <c r="H64">
+        <v>0.02607762058895525</v>
+      </c>
+      <c r="I64">
+        <v>-0.0291651475168799</v>
+      </c>
+      <c r="J64">
+        <v>0.05394078479373854</v>
+      </c>
+      <c r="K64">
+        <v>0.04005789699566411</v>
+      </c>
+      <c r="L64">
+        <v>0.01349241269004474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.124051874586295</v>
+        <v>0.1324239158634917</v>
       </c>
       <c r="C65">
-        <v>-0.03183821593595138</v>
+        <v>0.0223771608789553</v>
       </c>
       <c r="D65">
-        <v>0.05982660647835152</v>
+        <v>0.06418808450239051</v>
       </c>
       <c r="E65">
-        <v>-0.05632683796303827</v>
+        <v>-0.002959769785990541</v>
       </c>
       <c r="F65">
-        <v>0.08068339331621284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.06482621000505469</v>
+      </c>
+      <c r="G65">
+        <v>-0.09765593131206961</v>
+      </c>
+      <c r="H65">
+        <v>0.1883772076929669</v>
+      </c>
+      <c r="I65">
+        <v>-0.2190709229224837</v>
+      </c>
+      <c r="J65">
+        <v>-0.6185217188571923</v>
+      </c>
+      <c r="K65">
+        <v>-0.1237826185635229</v>
+      </c>
+      <c r="L65">
+        <v>-3.322569252495851e-06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1567466152941097</v>
+        <v>0.1417256193971402</v>
       </c>
       <c r="C66">
-        <v>-0.0769529267733207</v>
+        <v>0.09708432416386138</v>
       </c>
       <c r="D66">
-        <v>0.06837425047570336</v>
+        <v>0.02749886449679061</v>
       </c>
       <c r="E66">
-        <v>-0.01764029478348643</v>
+        <v>0.008605222516053742</v>
       </c>
       <c r="F66">
-        <v>-0.02384782928277674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03833336813709234</v>
+      </c>
+      <c r="G66">
+        <v>-0.09304052626399166</v>
+      </c>
+      <c r="H66">
+        <v>-0.02226660994192385</v>
+      </c>
+      <c r="I66">
+        <v>-0.05544582496011446</v>
+      </c>
+      <c r="J66">
+        <v>0.2505538957380612</v>
+      </c>
+      <c r="K66">
+        <v>0.08502970124683411</v>
+      </c>
+      <c r="L66">
+        <v>0.02211821870138335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09893902530575094</v>
+        <v>0.09881892858532386</v>
       </c>
       <c r="C67">
-        <v>-0.02717592479370577</v>
+        <v>0.05094303733316369</v>
       </c>
       <c r="D67">
-        <v>-0.01677716088384563</v>
+        <v>-0.01484486085192879</v>
       </c>
       <c r="E67">
-        <v>-0.003480718693390531</v>
+        <v>0.04274681161614353</v>
       </c>
       <c r="F67">
-        <v>0.008544450422563582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.02921585847955696</v>
+      </c>
+      <c r="G67">
+        <v>-0.01282750140199592</v>
+      </c>
+      <c r="H67">
+        <v>-0.006688913266444069</v>
+      </c>
+      <c r="I67">
+        <v>0.1565471272218749</v>
+      </c>
+      <c r="J67">
+        <v>0.0477441717079705</v>
+      </c>
+      <c r="K67">
+        <v>0.04991167701406958</v>
+      </c>
+      <c r="L67">
+        <v>0.07313736737666551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.05165498393409209</v>
+        <v>0.08597260885974499</v>
       </c>
       <c r="C68">
-        <v>0.2551040863404938</v>
+        <v>-0.2776609884228106</v>
       </c>
       <c r="D68">
-        <v>-0.03772768044790773</v>
+        <v>-0.03861992337692449</v>
       </c>
       <c r="E68">
-        <v>-0.04395149626618736</v>
+        <v>0.02730445210099813</v>
       </c>
       <c r="F68">
-        <v>0.03707100464163277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02355425000638142</v>
+      </c>
+      <c r="G68">
+        <v>0.01036562675754119</v>
+      </c>
+      <c r="H68">
+        <v>-0.01796588725295852</v>
+      </c>
+      <c r="I68">
+        <v>-0.04765446078800362</v>
+      </c>
+      <c r="J68">
+        <v>-0.04834161416650908</v>
+      </c>
+      <c r="K68">
+        <v>0.01369522225877367</v>
+      </c>
+      <c r="L68">
+        <v>-0.03606190779518835</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.0670108457702253</v>
+        <v>0.05604404261749851</v>
       </c>
       <c r="C69">
-        <v>-0.01384966157965801</v>
+        <v>0.01827152267884348</v>
       </c>
       <c r="D69">
-        <v>0.002329479357421447</v>
+        <v>-0.01417445737219027</v>
       </c>
       <c r="E69">
-        <v>-0.01772846353286333</v>
+        <v>-0.004026059346191727</v>
       </c>
       <c r="F69">
-        <v>0.00643609009036916</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001019713787808908</v>
+      </c>
+      <c r="G69">
+        <v>-0.01995135370693532</v>
+      </c>
+      <c r="H69">
+        <v>-0.03734153821657057</v>
+      </c>
+      <c r="I69">
+        <v>-0.009368064194257661</v>
+      </c>
+      <c r="J69">
+        <v>0.009912886403592405</v>
+      </c>
+      <c r="K69">
+        <v>-0.0003349222072415232</v>
+      </c>
+      <c r="L69">
+        <v>-0.008152040045994836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01632635235562596</v>
+        <v>0.0411812295899447</v>
       </c>
       <c r="C70">
-        <v>0.0122649575600637</v>
+        <v>0.00707399233950652</v>
       </c>
       <c r="D70">
-        <v>-0.004638876895662943</v>
+        <v>0.02146150653668653</v>
       </c>
       <c r="E70">
-        <v>0.01540959876485332</v>
+        <v>-0.01006691675963969</v>
       </c>
       <c r="F70">
-        <v>-0.00353834324862693</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.04994924357460025</v>
+      </c>
+      <c r="G70">
+        <v>-0.009894945832688226</v>
+      </c>
+      <c r="H70">
+        <v>0.02716312391272986</v>
+      </c>
+      <c r="I70">
+        <v>0.03755715332596334</v>
+      </c>
+      <c r="J70">
+        <v>0.01999556919626327</v>
+      </c>
+      <c r="K70">
+        <v>0.1378253405886294</v>
+      </c>
+      <c r="L70">
+        <v>0.1044984251878292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.0493965135443226</v>
+        <v>0.09596039802805936</v>
       </c>
       <c r="C71">
-        <v>0.2819787072964988</v>
+        <v>-0.2958246387921666</v>
       </c>
       <c r="D71">
-        <v>-0.04285339305352549</v>
+        <v>-0.02684298812676521</v>
       </c>
       <c r="E71">
-        <v>-0.07426922581921047</v>
+        <v>0.04697787428340382</v>
       </c>
       <c r="F71">
-        <v>0.02767427652308951</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.023730295043795</v>
+      </c>
+      <c r="G71">
+        <v>-0.0006279692863137424</v>
+      </c>
+      <c r="H71">
+        <v>-0.01117386453138723</v>
+      </c>
+      <c r="I71">
+        <v>-0.02351799803648595</v>
+      </c>
+      <c r="J71">
+        <v>-0.01065199616961286</v>
+      </c>
+      <c r="K71">
+        <v>0.003939360640013681</v>
+      </c>
+      <c r="L71">
+        <v>0.01130666539053029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1468653878094948</v>
+        <v>0.1364293618286066</v>
       </c>
       <c r="C72">
-        <v>0.04010633816652608</v>
+        <v>-0.0001735889447970435</v>
       </c>
       <c r="D72">
-        <v>0.0401644346402369</v>
+        <v>-0.01736445264148933</v>
       </c>
       <c r="E72">
-        <v>0.2381837113071961</v>
+        <v>-0.1736806488444972</v>
       </c>
       <c r="F72">
-        <v>0.04227040200780265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01696192686634606</v>
+      </c>
+      <c r="G72">
+        <v>-0.128131801899707</v>
+      </c>
+      <c r="H72">
+        <v>-0.02015794709739465</v>
+      </c>
+      <c r="I72">
+        <v>0.009350301633304069</v>
+      </c>
+      <c r="J72">
+        <v>-0.09033147681461828</v>
+      </c>
+      <c r="K72">
+        <v>-0.1276244881547038</v>
+      </c>
+      <c r="L72">
+        <v>0.0947779869459454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2480762834060105</v>
+        <v>0.2415735322726079</v>
       </c>
       <c r="C73">
-        <v>-0.05361727048410866</v>
+        <v>0.1095054989309041</v>
       </c>
       <c r="D73">
-        <v>0.1124911330963654</v>
+        <v>0.2167046209377619</v>
       </c>
       <c r="E73">
-        <v>-0.07449751094755616</v>
+        <v>0.02511388352790278</v>
       </c>
       <c r="F73">
-        <v>-0.1931521413645178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1947103690515606</v>
+      </c>
+      <c r="G73">
+        <v>0.2590458135460444</v>
+      </c>
+      <c r="H73">
+        <v>0.2953332382780282</v>
+      </c>
+      <c r="I73">
+        <v>0.1160133210139714</v>
+      </c>
+      <c r="J73">
+        <v>0.2376755427407281</v>
+      </c>
+      <c r="K73">
+        <v>-0.4498474089273761</v>
+      </c>
+      <c r="L73">
+        <v>-0.1185620372926939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08640947550468789</v>
+        <v>0.09284467309362171</v>
       </c>
       <c r="C74">
-        <v>0.01910720297983444</v>
+        <v>0.03173678955384996</v>
       </c>
       <c r="D74">
-        <v>0.05987908707425892</v>
+        <v>0.04582860855735586</v>
       </c>
       <c r="E74">
-        <v>-0.009432567811690275</v>
+        <v>-0.01201418516782723</v>
       </c>
       <c r="F74">
-        <v>0.006247479787263034</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.02174977998156678</v>
+      </c>
+      <c r="G74">
+        <v>0.02662460143388002</v>
+      </c>
+      <c r="H74">
+        <v>-0.1430096629208589</v>
+      </c>
+      <c r="I74">
+        <v>0.007426244967086789</v>
+      </c>
+      <c r="J74">
+        <v>0.01804550257568987</v>
+      </c>
+      <c r="K74">
+        <v>-0.06051087828754636</v>
+      </c>
+      <c r="L74">
+        <v>-0.04047941644623082</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.1209833400856062</v>
+        <v>0.1045319968750085</v>
       </c>
       <c r="C75">
-        <v>0.001891761367647603</v>
+        <v>0.02993395242351316</v>
       </c>
       <c r="D75">
-        <v>0.001272386061240914</v>
+        <v>-0.01097815440694748</v>
       </c>
       <c r="E75">
-        <v>-0.02235330868015054</v>
+        <v>-0.004775487668120512</v>
       </c>
       <c r="F75">
-        <v>-0.03525155638355776</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.03550989051203338</v>
+      </c>
+      <c r="G75">
+        <v>0.01444329625413421</v>
+      </c>
+      <c r="H75">
+        <v>-0.1323506214578694</v>
+      </c>
+      <c r="I75">
+        <v>0.02122073716596824</v>
+      </c>
+      <c r="J75">
+        <v>-0.04625786639220405</v>
+      </c>
+      <c r="K75">
+        <v>-0.02786132639249831</v>
+      </c>
+      <c r="L75">
+        <v>-0.05540629370327242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1380771051055083</v>
+        <v>0.1240748680972287</v>
       </c>
       <c r="C76">
-        <v>0.01137418143872321</v>
+        <v>0.0509158235684801</v>
       </c>
       <c r="D76">
-        <v>0.073525097830175</v>
+        <v>0.06094681565781069</v>
       </c>
       <c r="E76">
-        <v>-0.02236951645373889</v>
+        <v>0.007485220039782761</v>
       </c>
       <c r="F76">
-        <v>-0.002861719282207698</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.01937401843347418</v>
+      </c>
+      <c r="G76">
+        <v>0.01283554987540203</v>
+      </c>
+      <c r="H76">
+        <v>-0.2565389515558394</v>
+      </c>
+      <c r="I76">
+        <v>0.04476412074586255</v>
+      </c>
+      <c r="J76">
+        <v>-0.05143942664523082</v>
+      </c>
+      <c r="K76">
+        <v>-0.04448440983341122</v>
+      </c>
+      <c r="L76">
+        <v>-0.1382332623087898</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.125990824546092</v>
+        <v>0.08795135005090153</v>
       </c>
       <c r="C77">
-        <v>-0.0422910594496763</v>
+        <v>0.03039005649915855</v>
       </c>
       <c r="D77">
-        <v>-0.1036335732301652</v>
+        <v>-0.1570374055455416</v>
       </c>
       <c r="E77">
-        <v>-0.03057146610481772</v>
+        <v>0.1172409932105806</v>
       </c>
       <c r="F77">
-        <v>0.3213118490819457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03049199407433289</v>
+      </c>
+      <c r="G77">
+        <v>-0.6885795012865206</v>
+      </c>
+      <c r="H77">
+        <v>0.2534594370336397</v>
+      </c>
+      <c r="I77">
+        <v>0.4324329278171986</v>
+      </c>
+      <c r="J77">
+        <v>0.01742944116644496</v>
+      </c>
+      <c r="K77">
+        <v>-0.07547942969183045</v>
+      </c>
+      <c r="L77">
+        <v>-0.248318512015073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1250025374811806</v>
+        <v>0.1624113030280621</v>
       </c>
       <c r="C78">
-        <v>-0.06879424872627485</v>
+        <v>0.08165745844939722</v>
       </c>
       <c r="D78">
-        <v>0.04207155239946307</v>
+        <v>-0.02598255668967546</v>
       </c>
       <c r="E78">
-        <v>-0.01866005684233295</v>
+        <v>0.0949139642029511</v>
       </c>
       <c r="F78">
-        <v>0.09364241202524065</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.1397011453996883</v>
+      </c>
+      <c r="G78">
+        <v>-0.03274755312925476</v>
+      </c>
+      <c r="H78">
+        <v>0.09595243044273204</v>
+      </c>
+      <c r="I78">
+        <v>-0.03363512478103268</v>
+      </c>
+      <c r="J78">
+        <v>0.01546994704075108</v>
+      </c>
+      <c r="K78">
+        <v>-0.08513508561955051</v>
+      </c>
+      <c r="L78">
+        <v>0.5397821328450982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1477719607882924</v>
+        <v>0.1428248409325457</v>
       </c>
       <c r="C79">
-        <v>-0.01567605724035745</v>
+        <v>0.04439396544166875</v>
       </c>
       <c r="D79">
-        <v>0.07160066861090172</v>
+        <v>0.04762266791067758</v>
       </c>
       <c r="E79">
-        <v>-0.005399186257657916</v>
+        <v>-0.0003319505034011904</v>
       </c>
       <c r="F79">
-        <v>-0.06822023521869681</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.01466445393500746</v>
+      </c>
+      <c r="G79">
+        <v>-0.02221442576099981</v>
+      </c>
+      <c r="H79">
+        <v>-0.1881605032894083</v>
+      </c>
+      <c r="I79">
+        <v>0.0592117775211442</v>
+      </c>
+      <c r="J79">
+        <v>-0.06578340883056213</v>
+      </c>
+      <c r="K79">
+        <v>-0.03609010102706051</v>
+      </c>
+      <c r="L79">
+        <v>-0.04802829923954367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03849717276434148</v>
+        <v>0.04483948262514088</v>
       </c>
       <c r="C80">
-        <v>-0.02669976557784922</v>
+        <v>0.01214968185293409</v>
       </c>
       <c r="D80">
-        <v>0.02157592080838996</v>
+        <v>0.05675780784177065</v>
       </c>
       <c r="E80">
-        <v>-0.001056266707087822</v>
+        <v>-0.01488997458399539</v>
       </c>
       <c r="F80">
-        <v>-0.002513722117245595</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02226722528217668</v>
+      </c>
+      <c r="G80">
+        <v>-0.001860442852229909</v>
+      </c>
+      <c r="H80">
+        <v>0.03394822192036586</v>
+      </c>
+      <c r="I80">
+        <v>-0.07184909015724382</v>
+      </c>
+      <c r="J80">
+        <v>0.04163966642976393</v>
+      </c>
+      <c r="K80">
+        <v>0.03560288907383862</v>
+      </c>
+      <c r="L80">
+        <v>0.07472035853860008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1362025553745889</v>
+        <v>0.1334744624068321</v>
       </c>
       <c r="C81">
-        <v>0.002131292526821551</v>
+        <v>0.01892910543888941</v>
       </c>
       <c r="D81">
-        <v>0.06202392129075916</v>
+        <v>0.03821802105888324</v>
       </c>
       <c r="E81">
-        <v>-0.02837568010925991</v>
+        <v>-0.002503284909278463</v>
       </c>
       <c r="F81">
-        <v>-0.0459019270724445</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0177324572617146</v>
+      </c>
+      <c r="G81">
+        <v>0.003968248501811559</v>
+      </c>
+      <c r="H81">
+        <v>-0.1496709734402465</v>
+      </c>
+      <c r="I81">
+        <v>0.0287282706758052</v>
+      </c>
+      <c r="J81">
+        <v>0.02488816477322038</v>
+      </c>
+      <c r="K81">
+        <v>0.01724834363033366</v>
+      </c>
+      <c r="L81">
+        <v>-0.04034615014129959</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1225154198586432</v>
+        <v>0.1256431702467695</v>
       </c>
       <c r="C82">
-        <v>-0.0186707956415836</v>
+        <v>0.03363991187373324</v>
       </c>
       <c r="D82">
-        <v>0.0426602424748791</v>
+        <v>0.04447842105813118</v>
       </c>
       <c r="E82">
-        <v>-0.03624865618318129</v>
+        <v>-0.007284326287542515</v>
       </c>
       <c r="F82">
-        <v>-0.06571158303224811</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.007095715871219142</v>
+      </c>
+      <c r="G82">
+        <v>0.01993949211474871</v>
+      </c>
+      <c r="H82">
+        <v>-0.2832372601151539</v>
+      </c>
+      <c r="I82">
+        <v>0.04964892324874624</v>
+      </c>
+      <c r="J82">
+        <v>0.008311526792317184</v>
+      </c>
+      <c r="K82">
+        <v>0.005414377957001826</v>
+      </c>
+      <c r="L82">
+        <v>-0.09573088901540287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05452401238816473</v>
+        <v>0.07632083493773201</v>
       </c>
       <c r="C83">
-        <v>-0.02380112623190944</v>
+        <v>0.03684501954899758</v>
       </c>
       <c r="D83">
-        <v>-0.07161085097744105</v>
+        <v>-0.01818717078337084</v>
       </c>
       <c r="E83">
-        <v>-0.008433714983743122</v>
+        <v>0.01452868396332632</v>
       </c>
       <c r="F83">
-        <v>-0.08426270902030868</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.08870266677051745</v>
+      </c>
+      <c r="G83">
+        <v>0.03110739898405663</v>
+      </c>
+      <c r="H83">
+        <v>0.05492976239610438</v>
+      </c>
+      <c r="I83">
+        <v>-0.07297574650911194</v>
+      </c>
+      <c r="J83">
+        <v>0.03628849313300671</v>
+      </c>
+      <c r="K83">
+        <v>0.05969061045065372</v>
+      </c>
+      <c r="L83">
+        <v>0.07621154268060498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.04902662705445361</v>
+        <v>0.03154409381674743</v>
       </c>
       <c r="C84">
-        <v>-0.008962556218038925</v>
+        <v>0.04233730439361745</v>
       </c>
       <c r="D84">
-        <v>0.04909231094785132</v>
+        <v>-0.008455466760827987</v>
       </c>
       <c r="E84">
-        <v>0.02254593326540414</v>
+        <v>-0.03323924357167031</v>
       </c>
       <c r="F84">
-        <v>7.543785755451961e-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.05953156830733028</v>
+      </c>
+      <c r="G84">
+        <v>0.04009700463131217</v>
+      </c>
+      <c r="H84">
+        <v>-0.01772762967844248</v>
+      </c>
+      <c r="I84">
+        <v>-0.09878103204789991</v>
+      </c>
+      <c r="J84">
+        <v>0.03816809166218277</v>
+      </c>
+      <c r="K84">
+        <v>0.1092646607097506</v>
+      </c>
+      <c r="L84">
+        <v>0.04573690749676176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1098111690209913</v>
+        <v>0.1198862439514555</v>
       </c>
       <c r="C85">
-        <v>-0.0319297699730838</v>
+        <v>0.03544017761751139</v>
       </c>
       <c r="D85">
-        <v>0.03387363297923866</v>
+        <v>0.03692929455270314</v>
       </c>
       <c r="E85">
-        <v>-0.06101384691939019</v>
+        <v>0.0424142239495472</v>
       </c>
       <c r="F85">
-        <v>-0.004333790756343131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.006714300906297621</v>
+      </c>
+      <c r="G85">
+        <v>-0.01492268818051874</v>
+      </c>
+      <c r="H85">
+        <v>-0.1976056743771858</v>
+      </c>
+      <c r="I85">
+        <v>0.03286567230607527</v>
+      </c>
+      <c r="J85">
+        <v>-0.06062442736377359</v>
+      </c>
+      <c r="K85">
+        <v>-0.03827258330983079</v>
+      </c>
+      <c r="L85">
+        <v>-0.03431274062534678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.07491781063337757</v>
+        <v>0.06897354626582945</v>
       </c>
       <c r="C86">
-        <v>-0.06786023942471722</v>
+        <v>0.04123621149151136</v>
       </c>
       <c r="D86">
-        <v>0.03094398522745426</v>
+        <v>-0.01473092795723011</v>
       </c>
       <c r="E86">
-        <v>-0.008901152750378135</v>
+        <v>0.02275537875222013</v>
       </c>
       <c r="F86">
-        <v>0.02688275367814098</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03514532228486079</v>
+      </c>
+      <c r="G86">
+        <v>0.02471377003201691</v>
+      </c>
+      <c r="H86">
+        <v>0.02858880963101535</v>
+      </c>
+      <c r="I86">
+        <v>0.02876221813314094</v>
+      </c>
+      <c r="J86">
+        <v>-0.002585643412460267</v>
+      </c>
+      <c r="K86">
+        <v>0.06740853623717274</v>
+      </c>
+      <c r="L86">
+        <v>0.4156747444513503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1253808000624255</v>
+        <v>0.125492587990941</v>
       </c>
       <c r="C87">
-        <v>-0.06259864128687261</v>
+        <v>0.07256412303946834</v>
       </c>
       <c r="D87">
-        <v>0.06042255980782817</v>
+        <v>-0.001074158829867915</v>
       </c>
       <c r="E87">
-        <v>-0.04754210553077673</v>
+        <v>0.02935954432554517</v>
       </c>
       <c r="F87">
-        <v>0.1690390597925144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09162783665858398</v>
+      </c>
+      <c r="G87">
+        <v>-0.1937993333900277</v>
+      </c>
+      <c r="H87">
+        <v>0.09326705519067044</v>
+      </c>
+      <c r="I87">
+        <v>0.06306939984344731</v>
+      </c>
+      <c r="J87">
+        <v>0.02463260490155915</v>
+      </c>
+      <c r="K87">
+        <v>0.03039488169215957</v>
+      </c>
+      <c r="L87">
+        <v>-0.08112392899384484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.05779073730263979</v>
+        <v>0.06467318819313399</v>
       </c>
       <c r="C88">
-        <v>-0.02218973557890812</v>
+        <v>0.03914053526309978</v>
       </c>
       <c r="D88">
-        <v>0.02624862603156636</v>
+        <v>0.03808389339319728</v>
       </c>
       <c r="E88">
-        <v>-0.009893794353582256</v>
+        <v>0.005847303090753551</v>
       </c>
       <c r="F88">
-        <v>0.007345797314130043</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.004601622973455386</v>
+      </c>
+      <c r="G88">
+        <v>-0.02080403002954337</v>
+      </c>
+      <c r="H88">
+        <v>-0.01581841223474463</v>
+      </c>
+      <c r="I88">
+        <v>-0.03280387458616674</v>
+      </c>
+      <c r="J88">
+        <v>0.03812482807465209</v>
+      </c>
+      <c r="K88">
+        <v>0.0327670067055609</v>
+      </c>
+      <c r="L88">
+        <v>0.02117530633420229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.08869553627145649</v>
+        <v>0.1574268919184697</v>
       </c>
       <c r="C89">
-        <v>0.3264427478207061</v>
+        <v>-0.372586505840868</v>
       </c>
       <c r="D89">
-        <v>-0.05192689091697277</v>
+        <v>-0.01706824734597076</v>
       </c>
       <c r="E89">
-        <v>-0.1166244867524938</v>
+        <v>0.09056358555258388</v>
       </c>
       <c r="F89">
-        <v>0.05825011888497703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.004718337528938674</v>
+      </c>
+      <c r="G89">
+        <v>0.02775595298030306</v>
+      </c>
+      <c r="H89">
+        <v>0.01495576621691573</v>
+      </c>
+      <c r="I89">
+        <v>-0.06275798714532078</v>
+      </c>
+      <c r="J89">
+        <v>0.0885575842373086</v>
+      </c>
+      <c r="K89">
+        <v>-0.01234989831295931</v>
+      </c>
+      <c r="L89">
+        <v>-0.02141512190321317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.07387854247802354</v>
+        <v>0.109344661704494</v>
       </c>
       <c r="C90">
-        <v>0.282054526745553</v>
+        <v>-0.2789726191415041</v>
       </c>
       <c r="D90">
-        <v>-0.06686002488297174</v>
+        <v>-0.03475217915010791</v>
       </c>
       <c r="E90">
-        <v>-0.05340551458798685</v>
+        <v>0.03957807923954727</v>
       </c>
       <c r="F90">
-        <v>0.05882174706486853</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01108407113764367</v>
+      </c>
+      <c r="G90">
+        <v>-0.03072966032381541</v>
+      </c>
+      <c r="H90">
+        <v>0.04003576645834266</v>
+      </c>
+      <c r="I90">
+        <v>-0.04547461563879605</v>
+      </c>
+      <c r="J90">
+        <v>0.06272789576081869</v>
+      </c>
+      <c r="K90">
+        <v>-0.003765025489346139</v>
+      </c>
+      <c r="L90">
+        <v>0.009852061884841523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.1015262854821451</v>
+        <v>0.08737804522622976</v>
       </c>
       <c r="C91">
-        <v>-0.01087947279768581</v>
+        <v>0.03799793739520826</v>
       </c>
       <c r="D91">
-        <v>0.03600881712857971</v>
+        <v>0.007656931814097199</v>
       </c>
       <c r="E91">
-        <v>-0.01419133943187087</v>
+        <v>-0.0003219863769716007</v>
       </c>
       <c r="F91">
-        <v>-0.01227746264317207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.003148003932844325</v>
+      </c>
+      <c r="G91">
+        <v>0.02809694303883274</v>
+      </c>
+      <c r="H91">
+        <v>-0.0911672619659987</v>
+      </c>
+      <c r="I91">
+        <v>0.01266283912146951</v>
+      </c>
+      <c r="J91">
+        <v>-0.02550617403804046</v>
+      </c>
+      <c r="K91">
+        <v>-0.03285747450228473</v>
+      </c>
+      <c r="L91">
+        <v>-0.08900131988062342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.0570089544830529</v>
+        <v>0.1113702307779336</v>
       </c>
       <c r="C92">
-        <v>0.3340039538398747</v>
+        <v>-0.3359621837904296</v>
       </c>
       <c r="D92">
-        <v>-0.0320590618489951</v>
+        <v>-0.01826224367871767</v>
       </c>
       <c r="E92">
-        <v>-0.08539407739686355</v>
+        <v>0.05262019216429971</v>
       </c>
       <c r="F92">
-        <v>0.01583432059550614</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.02805785154050117</v>
+      </c>
+      <c r="G92">
+        <v>0.0243613794146089</v>
+      </c>
+      <c r="H92">
+        <v>-0.01571420783088969</v>
+      </c>
+      <c r="I92">
+        <v>-0.01843797026094896</v>
+      </c>
+      <c r="J92">
+        <v>0.0235043909659382</v>
+      </c>
+      <c r="K92">
+        <v>0.00691133899229644</v>
+      </c>
+      <c r="L92">
+        <v>0.01778721792212784</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.05954271787123016</v>
+        <v>0.1146425336267717</v>
       </c>
       <c r="C93">
-        <v>0.2878315492871592</v>
+        <v>-0.3071656147084101</v>
       </c>
       <c r="D93">
-        <v>-0.03480494244554529</v>
+        <v>-0.007045458936109786</v>
       </c>
       <c r="E93">
-        <v>-0.05139773630065549</v>
+        <v>0.02447827523300498</v>
       </c>
       <c r="F93">
-        <v>0.04074357930620678</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0041604045635579</v>
+      </c>
+      <c r="G93">
+        <v>-0.0004030362213828523</v>
+      </c>
+      <c r="H93">
+        <v>0.01393492228219065</v>
+      </c>
+      <c r="I93">
+        <v>-0.002386758743268823</v>
+      </c>
+      <c r="J93">
+        <v>-0.00256243251336147</v>
+      </c>
+      <c r="K93">
+        <v>0.03626230873466634</v>
+      </c>
+      <c r="L93">
+        <v>0.009248181139868816</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.124699253492319</v>
+        <v>0.1194865579811884</v>
       </c>
       <c r="C94">
-        <v>-0.05587913622627817</v>
+        <v>0.06051867247009012</v>
       </c>
       <c r="D94">
-        <v>0.03473931960923722</v>
+        <v>0.008883499962739863</v>
       </c>
       <c r="E94">
-        <v>-0.03182066155209159</v>
+        <v>0.02526576534644118</v>
       </c>
       <c r="F94">
-        <v>-0.0279160823590681</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.007088308852578626</v>
+      </c>
+      <c r="G94">
+        <v>0.05649714938222395</v>
+      </c>
+      <c r="H94">
+        <v>-0.1278289471393499</v>
+      </c>
+      <c r="I94">
+        <v>-0.0005966858479308111</v>
+      </c>
+      <c r="J94">
+        <v>-0.02516778979529371</v>
+      </c>
+      <c r="K94">
+        <v>-0.03325749596823917</v>
+      </c>
+      <c r="L94">
+        <v>-0.05519347816242251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1231315721833832</v>
+        <v>0.1342725306167718</v>
       </c>
       <c r="C95">
-        <v>-0.08578536760506385</v>
+        <v>0.07602024089443504</v>
       </c>
       <c r="D95">
-        <v>0.08404534604395072</v>
+        <v>0.03100637670948667</v>
       </c>
       <c r="E95">
-        <v>-0.07504153268893105</v>
+        <v>0.05401656777650114</v>
       </c>
       <c r="F95">
-        <v>-0.03488409159718416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.06633082841177405</v>
+      </c>
+      <c r="G95">
+        <v>-0.03057852042431042</v>
+      </c>
+      <c r="H95">
+        <v>0.1282935455519408</v>
+      </c>
+      <c r="I95">
+        <v>-0.06934941333152779</v>
+      </c>
+      <c r="J95">
+        <v>0.01384220797615311</v>
+      </c>
+      <c r="K95">
+        <v>0.003719915495256244</v>
+      </c>
+      <c r="L95">
+        <v>-0.04141586871672708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2484331883073668</v>
+        <v>0.1854885467620332</v>
       </c>
       <c r="C97">
-        <v>0.1466799422082492</v>
+        <v>-0.03556512453108364</v>
       </c>
       <c r="D97">
-        <v>0.03186878999403115</v>
+        <v>-0.270621358800466</v>
       </c>
       <c r="E97">
-        <v>0.8874561882967306</v>
+        <v>-0.8950046907028653</v>
       </c>
       <c r="F97">
-        <v>0.05368400299490803</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.09471739406216809</v>
+      </c>
+      <c r="G97">
+        <v>-0.04278774816560441</v>
+      </c>
+      <c r="H97">
+        <v>0.05866226996276626</v>
+      </c>
+      <c r="I97">
+        <v>-0.03243939882247338</v>
+      </c>
+      <c r="J97">
+        <v>0.07369752564351563</v>
+      </c>
+      <c r="K97">
+        <v>-0.03756667066819633</v>
+      </c>
+      <c r="L97">
+        <v>-0.005544632672634915</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2863742360282772</v>
+        <v>0.2823479441344948</v>
       </c>
       <c r="C98">
-        <v>-0.04511335027142331</v>
+        <v>0.1004062781185067</v>
       </c>
       <c r="D98">
-        <v>-0.002231899430562449</v>
+        <v>0.1198155118014779</v>
       </c>
       <c r="E98">
-        <v>-0.07066495296997093</v>
+        <v>-0.06398936784682102</v>
       </c>
       <c r="F98">
-        <v>-0.5132866690190193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2679748576972173</v>
+      </c>
+      <c r="G98">
+        <v>0.2986038570299144</v>
+      </c>
+      <c r="H98">
+        <v>0.264184424041397</v>
+      </c>
+      <c r="I98">
+        <v>0.1946022865448346</v>
+      </c>
+      <c r="J98">
+        <v>-0.1580799686158643</v>
+      </c>
+      <c r="K98">
+        <v>0.5962287075096855</v>
+      </c>
+      <c r="L98">
+        <v>-0.217544954175319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.259284802878204</v>
+        <v>0.1567892736732592</v>
       </c>
       <c r="C99">
-        <v>-0.1699235193931441</v>
+        <v>0.1076152388979279</v>
       </c>
       <c r="D99">
-        <v>-0.8880951497313251</v>
+        <v>-0.5960181542294087</v>
       </c>
       <c r="E99">
-        <v>0.01230650084209952</v>
+        <v>0.1377188955740992</v>
       </c>
       <c r="F99">
-        <v>-0.1317182202360096</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.6600285883588763</v>
+      </c>
+      <c r="G99">
+        <v>-0.02292494322829382</v>
+      </c>
+      <c r="H99">
+        <v>-0.1341765594344291</v>
+      </c>
+      <c r="I99">
+        <v>-0.08554568051551877</v>
+      </c>
+      <c r="J99">
+        <v>-0.05880239058420894</v>
+      </c>
+      <c r="K99">
+        <v>-0.03607030565536648</v>
+      </c>
+      <c r="L99">
+        <v>0.1801400691479157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05727666172183764</v>
+        <v>0.05362461773834935</v>
       </c>
       <c r="C101">
-        <v>0.004146614202400756</v>
+        <v>0.01267821908939466</v>
       </c>
       <c r="D101">
-        <v>0.03252420561808654</v>
+        <v>0.01569947391632961</v>
       </c>
       <c r="E101">
-        <v>-0.02246216074473969</v>
+        <v>0.02364310279459146</v>
       </c>
       <c r="F101">
-        <v>0.0365304554703096</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03828288653736957</v>
+      </c>
+      <c r="G101">
+        <v>-0.03119462226596347</v>
+      </c>
+      <c r="H101">
+        <v>-0.05483482346519384</v>
+      </c>
+      <c r="I101">
+        <v>-0.03716010202939819</v>
+      </c>
+      <c r="J101">
+        <v>-0.01337988135409231</v>
+      </c>
+      <c r="K101">
+        <v>0.03714512234397725</v>
+      </c>
+      <c r="L101">
+        <v>0.005871105539609358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
